--- a/data_table/BattleRewardPool.xlsx
+++ b/data_table/BattleRewardPool.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -1071,7 +1074,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1123,36 +1126,36 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1163,17 +1166,17 @@
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:5">
